--- a/upload/product.xlsx
+++ b/upload/product.xlsx
@@ -82,43 +82,43 @@
     <t>是</t>
   </si>
   <si>
+    <t>tet123</t>
+  </si>
+  <si>
+    <t>上工</t>
+  </si>
+  <si>
+    <t>锰钢</t>
+  </si>
+  <si>
+    <t>上海测量测具公司</t>
+  </si>
+  <si>
+    <t>1 1/16-12UN123</t>
+  </si>
+  <si>
+    <t>台</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>成都测量有限公司</t>
+  </si>
+  <si>
+    <t>第一条记录测试</t>
+  </si>
+  <si>
     <t>23UN3232</t>
   </si>
   <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
     <t>哈尔滨测量量具公司</t>
   </si>
   <si>
     <t>第一次添加测试</t>
-  </si>
-  <si>
-    <t>tet123</t>
-  </si>
-  <si>
-    <t>上工</t>
-  </si>
-  <si>
-    <t>锰钢</t>
-  </si>
-  <si>
-    <t>上海测量测具公司</t>
-  </si>
-  <si>
-    <t>1 1/16-12UN123</t>
-  </si>
-  <si>
-    <t>台</t>
-  </si>
-  <si>
-    <t>成都测量有限公司</t>
-  </si>
-  <si>
-    <t>第一条记录测试</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -669,30 +669,27 @@
         <v>25</v>
       </c>
       <c r="H6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -704,42 +701,45 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>17</v>

--- a/upload/product.xlsx
+++ b/upload/product.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="35">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -32,6 +32,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">商品</t>
     </r>
@@ -60,9 +61,6 @@
     <t xml:space="preserve">材质</t>
   </si>
   <si>
-    <t xml:space="preserve">颜色</t>
-  </si>
-  <si>
     <t xml:space="preserve">生产厂家</t>
   </si>
   <si>
@@ -78,7 +76,7 @@
     <t xml:space="preserve">备注</t>
   </si>
   <si>
-    <t xml:space="preserve">3_102</t>
+    <t xml:space="preserve">3_103</t>
   </si>
   <si>
     <t xml:space="preserve">btw45</t>
@@ -163,6 +161,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -185,6 +184,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -253,7 +253,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,26 +282,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="9.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="9.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -335,442 +335,659 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>96</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="J2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="J3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>98</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="J4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>26</v>
+      <c r="H6" s="0" t="n">
+        <v>99</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="J6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="J10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>18</v>
+      <c r="J10" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>98</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="J11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
+      <c r="J11" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="J12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>26</v>
+      <c r="H13" s="0" t="n">
+        <v>99</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="J13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>18</v>
+      <c r="J13" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>98</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E21" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G21" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H21" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/upload/product.xlsx
+++ b/upload/product.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -75,10 +75,31 @@
     <t xml:space="preserve">备注</t>
   </si>
   <si>
-    <t xml:space="preserve">3_102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btw45</t>
+    <t xml:space="preserve">3_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1/16-12UN123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都测量有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一条记录测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btw45-we</t>
   </si>
   <si>
     <t xml:space="preserve">支</t>
@@ -93,7 +114,7 @@
     <t xml:space="preserve">成都测量量具公司</t>
   </si>
   <si>
-    <t xml:space="preserve">否</t>
+    <t xml:space="preserve">测试更新</t>
   </si>
   <si>
     <t xml:space="preserve">wer123</t>
@@ -234,7 +255,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -284,9 +305,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -300,54 +321,97 @@
       <c r="E2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
